--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H2">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I2">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J2">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188276784192115</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N2">
-        <v>0.188276784192115</v>
+        <v>0.619108</v>
       </c>
       <c r="O2">
-        <v>0.05239039408417863</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P2">
-        <v>0.05239039408417863</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q2">
-        <v>3.607880212159734</v>
+        <v>3.986883958294222</v>
       </c>
       <c r="R2">
-        <v>3.607880212159734</v>
+        <v>35.881955624648</v>
       </c>
       <c r="S2">
-        <v>0.005558499546606074</v>
+        <v>0.005235828142221302</v>
       </c>
       <c r="T2">
-        <v>0.005558499546606074</v>
+        <v>0.005532538579239663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H3">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I3">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J3">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.09796213891147</v>
+        <v>3.258868</v>
       </c>
       <c r="N3">
-        <v>3.09796213891147</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O3">
-        <v>0.862047107995135</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P3">
-        <v>0.862047107995135</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q3">
-        <v>59.36513281209332</v>
+        <v>62.95862055440266</v>
       </c>
       <c r="R3">
-        <v>59.36513281209332</v>
+        <v>566.627584989624</v>
       </c>
       <c r="S3">
-        <v>0.09146120281601541</v>
+        <v>0.08268124197806094</v>
       </c>
       <c r="T3">
-        <v>0.09146120281601541</v>
+        <v>0.0873667256826738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1626398742731</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H4">
-        <v>19.1626398742731</v>
+        <v>57.957506</v>
       </c>
       <c r="I4">
-        <v>0.1060976853442812</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J4">
-        <v>0.1060976853442812</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.307488276000891</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N4">
-        <v>0.307488276000891</v>
+        <v>0.013054</v>
       </c>
       <c r="O4">
-        <v>0.08556249792068643</v>
+        <v>0.001106869224130377</v>
       </c>
       <c r="P4">
-        <v>0.08556249792068643</v>
+        <v>0.001151958545729551</v>
       </c>
       <c r="Q4">
-        <v>5.892287098566166</v>
+        <v>0.08406414259155555</v>
       </c>
       <c r="R4">
-        <v>5.892287098566166</v>
+        <v>0.756577283324</v>
       </c>
       <c r="S4">
-        <v>0.009077982981659702</v>
+        <v>0.0001103983482180118</v>
       </c>
       <c r="T4">
-        <v>0.009077982981659702</v>
+        <v>0.0001166545394557889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.952976960705</v>
+        <v>19.31916866666667</v>
       </c>
       <c r="H5">
-        <v>122.952976960705</v>
+        <v>57.957506</v>
       </c>
       <c r="I5">
-        <v>0.6807530876386817</v>
+        <v>0.09973928790435696</v>
       </c>
       <c r="J5">
-        <v>0.6807530876386817</v>
+        <v>0.1012662650824037</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188276784192115</v>
+        <v>0.4616195</v>
       </c>
       <c r="N5">
-        <v>0.188276784192115</v>
+        <v>0.923239</v>
       </c>
       <c r="O5">
-        <v>0.05239039408417863</v>
+        <v>0.117424333800012</v>
       </c>
       <c r="P5">
-        <v>0.05239039408417863</v>
+        <v>0.0814718136816918</v>
       </c>
       <c r="Q5">
-        <v>23.14919110900874</v>
+        <v>8.918104980322333</v>
       </c>
       <c r="R5">
-        <v>23.14919110900874</v>
+        <v>53.50862988193401</v>
       </c>
       <c r="S5">
-        <v>0.03566492253541192</v>
+        <v>0.01171181943585672</v>
       </c>
       <c r="T5">
-        <v>0.03566492253541192</v>
+        <v>0.008250346281034404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H6">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I6">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J6">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.09796213891147</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N6">
-        <v>3.09796213891147</v>
+        <v>0.619108</v>
       </c>
       <c r="O6">
-        <v>0.862047107995135</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P6">
-        <v>0.862047107995135</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q6">
-        <v>380.9036674907184</v>
+        <v>26.28489623141822</v>
       </c>
       <c r="R6">
-        <v>380.9036674907184</v>
+        <v>236.564066082764</v>
       </c>
       <c r="S6">
-        <v>0.5868412304576842</v>
+        <v>0.03451898797242845</v>
       </c>
       <c r="T6">
-        <v>0.5868412304576842</v>
+        <v>0.03647515301996677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.952976960705</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H7">
-        <v>122.952976960705</v>
+        <v>382.104683</v>
       </c>
       <c r="I7">
-        <v>0.6807530876386817</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J7">
-        <v>0.6807530876386817</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.307488276000891</v>
+        <v>3.258868</v>
       </c>
       <c r="N7">
-        <v>0.307488276000891</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O7">
-        <v>0.08556249792068643</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P7">
-        <v>0.08556249792068643</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q7">
-        <v>37.80659891482446</v>
+        <v>415.0762413596146</v>
       </c>
       <c r="R7">
-        <v>37.80659891482446</v>
+        <v>3735.686172236532</v>
       </c>
       <c r="S7">
-        <v>0.05824693464558557</v>
+        <v>0.5451043693300618</v>
       </c>
       <c r="T7">
-        <v>0.05824693464558557</v>
+        <v>0.5759950233491075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.6741777959619</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H8">
-        <v>15.6741777959619</v>
+        <v>382.104683</v>
       </c>
       <c r="I8">
-        <v>0.08678313607818437</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J8">
-        <v>0.08678313607818437</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188276784192115</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N8">
-        <v>0.188276784192115</v>
+        <v>0.013054</v>
       </c>
       <c r="O8">
-        <v>0.05239039408417863</v>
+        <v>0.001106869224130377</v>
       </c>
       <c r="P8">
-        <v>0.05239039408417863</v>
+        <v>0.001151958545729551</v>
       </c>
       <c r="Q8">
-        <v>2.951083790279159</v>
+        <v>0.5542216146535555</v>
       </c>
       <c r="R8">
-        <v>2.951083790279159</v>
+        <v>4.987994531882</v>
       </c>
       <c r="S8">
-        <v>0.00454660269899698</v>
+        <v>0.0007278388730109788</v>
       </c>
       <c r="T8">
-        <v>0.00454660269899698</v>
+        <v>0.0007690849537118664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.6741777959619</v>
+        <v>127.3682276666667</v>
       </c>
       <c r="H9">
-        <v>15.6741777959619</v>
+        <v>382.104683</v>
       </c>
       <c r="I9">
-        <v>0.08678313607818437</v>
+        <v>0.6575653719009243</v>
       </c>
       <c r="J9">
-        <v>0.08678313607818437</v>
+        <v>0.6676324912584373</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.09796213891147</v>
+        <v>0.4616195</v>
       </c>
       <c r="N9">
-        <v>3.09796213891147</v>
+        <v>0.923239</v>
       </c>
       <c r="O9">
-        <v>0.862047107995135</v>
+        <v>0.117424333800012</v>
       </c>
       <c r="P9">
-        <v>0.862047107995135</v>
+        <v>0.0814718136816918</v>
       </c>
       <c r="Q9">
-        <v>48.5580093704568</v>
+        <v>58.79565757137284</v>
       </c>
       <c r="R9">
-        <v>48.5580093704568</v>
+        <v>352.773945428237</v>
       </c>
       <c r="S9">
-        <v>0.0748111514789471</v>
+        <v>0.0772141757254232</v>
       </c>
       <c r="T9">
-        <v>0.0748111514789471</v>
+        <v>0.05439322993565113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.6741777959619</v>
+        <v>18.657769</v>
       </c>
       <c r="H10">
-        <v>15.6741777959619</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I10">
-        <v>0.08678313607818437</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J10">
-        <v>0.08678313607818437</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307488276000891</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N10">
-        <v>0.307488276000891</v>
+        <v>0.619108</v>
       </c>
       <c r="O10">
-        <v>0.08556249792068643</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P10">
-        <v>0.08556249792068643</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q10">
-        <v>4.81962590821177</v>
+        <v>3.850391350017333</v>
       </c>
       <c r="R10">
-        <v>4.81962590821177</v>
+        <v>34.65352215015599</v>
       </c>
       <c r="S10">
-        <v>0.007425381900240298</v>
+        <v>0.005056577417320072</v>
       </c>
       <c r="T10">
-        <v>0.007425381900240298</v>
+        <v>0.005343129850775937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.2624949511748</v>
+        <v>18.657769</v>
       </c>
       <c r="H11">
-        <v>15.2624949511748</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I11">
-        <v>0.08450377388099038</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J11">
-        <v>0.08450377388099038</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.188276784192115</v>
+        <v>3.258868</v>
       </c>
       <c r="N11">
-        <v>0.188276784192115</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O11">
-        <v>0.05239039408417863</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P11">
-        <v>0.05239039408417863</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q11">
-        <v>2.873573468155582</v>
+        <v>60.80320634549199</v>
       </c>
       <c r="R11">
-        <v>2.873573468155582</v>
+        <v>547.2288571094278</v>
       </c>
       <c r="S11">
-        <v>0.004427186015225407</v>
+        <v>0.07985061573179654</v>
       </c>
       <c r="T11">
-        <v>0.004427186015225407</v>
+        <v>0.08437568997915618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.2624949511748</v>
+        <v>18.657769</v>
       </c>
       <c r="H12">
-        <v>15.2624949511748</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I12">
-        <v>0.08450377388099038</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J12">
-        <v>0.08450377388099038</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.09796213891147</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N12">
-        <v>3.09796213891147</v>
+        <v>0.013054</v>
       </c>
       <c r="O12">
-        <v>0.862047107995135</v>
+        <v>0.001106869224130377</v>
       </c>
       <c r="P12">
-        <v>0.862047107995135</v>
+        <v>0.001151958545729551</v>
       </c>
       <c r="Q12">
-        <v>47.282631504067</v>
+        <v>0.08118617217533332</v>
       </c>
       <c r="R12">
-        <v>47.282631504067</v>
+        <v>0.7306755495779998</v>
       </c>
       <c r="S12">
-        <v>0.07284623388878259</v>
+        <v>0.0001066188154662777</v>
       </c>
       <c r="T12">
-        <v>0.07284623388878259</v>
+        <v>0.0001126608234298847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.2624949511748</v>
+        <v>18.657769</v>
       </c>
       <c r="H13">
-        <v>15.2624949511748</v>
+        <v>55.97330699999999</v>
       </c>
       <c r="I13">
-        <v>0.08450377388099038</v>
+        <v>0.09632467245626405</v>
       </c>
       <c r="J13">
-        <v>0.08450377388099038</v>
+        <v>0.09779937294404559</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.307488276000891</v>
+        <v>0.4616195</v>
       </c>
       <c r="N13">
-        <v>0.307488276000891</v>
+        <v>0.923239</v>
       </c>
       <c r="O13">
-        <v>0.08556249792068643</v>
+        <v>0.117424333800012</v>
       </c>
       <c r="P13">
-        <v>0.08556249792068643</v>
+        <v>0.0814718136816918</v>
       </c>
       <c r="Q13">
-        <v>4.693038260009042</v>
+        <v>8.612789996895499</v>
       </c>
       <c r="R13">
-        <v>4.693038260009042</v>
+        <v>51.676739981373</v>
       </c>
       <c r="S13">
-        <v>0.007230353976982396</v>
+        <v>0.01131086049168118</v>
       </c>
       <c r="T13">
-        <v>0.007230353976982396</v>
+        <v>0.007967892290683572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.56088602196535</v>
+        <v>19.589352</v>
       </c>
       <c r="H14">
-        <v>7.56088602196535</v>
+        <v>58.768056</v>
       </c>
       <c r="I14">
-        <v>0.04186231705786223</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J14">
-        <v>0.04186231705786223</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.188276784192115</v>
+        <v>0.2063693333333333</v>
       </c>
       <c r="N14">
-        <v>0.188276784192115</v>
+        <v>0.619108</v>
       </c>
       <c r="O14">
-        <v>0.05239039408417863</v>
+        <v>0.05249514260861875</v>
       </c>
       <c r="P14">
-        <v>0.05239039408417863</v>
+        <v>0.05463357984752036</v>
       </c>
       <c r="Q14">
-        <v>1.423539305858749</v>
+        <v>4.042641512672</v>
       </c>
       <c r="R14">
-        <v>1.423539305858749</v>
+        <v>36.383773614048</v>
       </c>
       <c r="S14">
-        <v>0.002193183287938235</v>
+        <v>0.005309052488705044</v>
       </c>
       <c r="T14">
-        <v>0.002193183287938235</v>
+        <v>0.005609912494283605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.56088602196535</v>
+        <v>19.589352</v>
       </c>
       <c r="H15">
-        <v>7.56088602196535</v>
+        <v>58.768056</v>
       </c>
       <c r="I15">
-        <v>0.04186231705786223</v>
+        <v>0.1011341664177781</v>
       </c>
       <c r="J15">
-        <v>0.04186231705786223</v>
+        <v>0.1026824987478506</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.09796213891147</v>
+        <v>3.258868</v>
       </c>
       <c r="N15">
-        <v>3.09796213891147</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O15">
-        <v>0.862047107995135</v>
+        <v>0.8289736543672389</v>
       </c>
       <c r="P15">
-        <v>0.862047107995135</v>
+        <v>0.8627426479250582</v>
       </c>
       <c r="Q15">
-        <v>23.42333863267362</v>
+        <v>63.839112373536</v>
       </c>
       <c r="R15">
-        <v>23.42333863267362</v>
+        <v>574.5520113618239</v>
       </c>
       <c r="S15">
-        <v>0.03608728935370554</v>
+        <v>0.08383755951673001</v>
       </c>
       <c r="T15">
-        <v>0.03608728935370554</v>
+        <v>0.0885885708652821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.589352</v>
+      </c>
+      <c r="H16">
+        <v>58.768056</v>
+      </c>
+      <c r="I16">
+        <v>0.1011341664177781</v>
+      </c>
+      <c r="J16">
+        <v>0.1026824987478506</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.004351333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.013054</v>
+      </c>
+      <c r="O16">
+        <v>0.001106869224130377</v>
+      </c>
+      <c r="P16">
+        <v>0.001151958545729551</v>
+      </c>
+      <c r="Q16">
+        <v>0.085239800336</v>
+      </c>
+      <c r="R16">
+        <v>0.767158203024</v>
+      </c>
+      <c r="S16">
+        <v>0.0001119422963159185</v>
+      </c>
+      <c r="T16">
+        <v>0.0001182859819294504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.589352</v>
+      </c>
+      <c r="H17">
+        <v>58.768056</v>
+      </c>
+      <c r="I17">
+        <v>0.1011341664177781</v>
+      </c>
+      <c r="J17">
+        <v>0.1026824987478506</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4616195</v>
+      </c>
+      <c r="N17">
+        <v>0.923239</v>
+      </c>
+      <c r="O17">
+        <v>0.117424333800012</v>
+      </c>
+      <c r="P17">
+        <v>0.0814718136816918</v>
+      </c>
+      <c r="Q17">
+        <v>9.042826875564002</v>
+      </c>
+      <c r="R17">
+        <v>54.25696125338401</v>
+      </c>
+      <c r="S17">
+        <v>0.01187561211602715</v>
+      </c>
+      <c r="T17">
+        <v>0.008365729406355436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7.56088602196535</v>
-      </c>
-      <c r="H16">
-        <v>7.56088602196535</v>
-      </c>
-      <c r="I16">
-        <v>0.04186231705786223</v>
-      </c>
-      <c r="J16">
-        <v>0.04186231705786223</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.307488276000891</v>
-      </c>
-      <c r="N16">
-        <v>0.307488276000891</v>
-      </c>
-      <c r="O16">
-        <v>0.08556249792068643</v>
-      </c>
-      <c r="P16">
-        <v>0.08556249792068643</v>
-      </c>
-      <c r="Q16">
-        <v>2.32488380793336</v>
-      </c>
-      <c r="R16">
-        <v>2.32488380793336</v>
-      </c>
-      <c r="S16">
-        <v>0.003581844416218453</v>
-      </c>
-      <c r="T16">
-        <v>0.003581844416218453</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.76216</v>
+      </c>
+      <c r="H18">
+        <v>17.52432</v>
+      </c>
+      <c r="I18">
+        <v>0.04523650132067659</v>
+      </c>
+      <c r="J18">
+        <v>0.03061937196726285</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2063693333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.619108</v>
+      </c>
+      <c r="O18">
+        <v>0.05249514260861875</v>
+      </c>
+      <c r="P18">
+        <v>0.05463357984752036</v>
+      </c>
+      <c r="Q18">
+        <v>1.80824111776</v>
+      </c>
+      <c r="R18">
+        <v>10.84944670656</v>
+      </c>
+      <c r="S18">
+        <v>0.002374696587943888</v>
+      </c>
+      <c r="T18">
+        <v>0.001672845903254381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.76216</v>
+      </c>
+      <c r="H19">
+        <v>17.52432</v>
+      </c>
+      <c r="I19">
+        <v>0.04523650132067659</v>
+      </c>
+      <c r="J19">
+        <v>0.03061937196726285</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.258868</v>
+      </c>
+      <c r="N19">
+        <v>9.776603999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.8289736543672389</v>
+      </c>
+      <c r="P19">
+        <v>0.8627426479250582</v>
+      </c>
+      <c r="Q19">
+        <v>28.55472283488</v>
+      </c>
+      <c r="R19">
+        <v>171.32833700928</v>
+      </c>
+      <c r="S19">
+        <v>0.0374998678105897</v>
+      </c>
+      <c r="T19">
+        <v>0.02641663804883864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.76216</v>
+      </c>
+      <c r="H20">
+        <v>17.52432</v>
+      </c>
+      <c r="I20">
+        <v>0.04523650132067659</v>
+      </c>
+      <c r="J20">
+        <v>0.03061937196726285</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.004351333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.013054</v>
+      </c>
+      <c r="O20">
+        <v>0.001106869224130377</v>
+      </c>
+      <c r="P20">
+        <v>0.001151958545729551</v>
+      </c>
+      <c r="Q20">
+        <v>0.03812707888</v>
+      </c>
+      <c r="R20">
+        <v>0.22876247328</v>
+      </c>
+      <c r="S20">
+        <v>5.007089111919006E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.527224720256028E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.76216</v>
+      </c>
+      <c r="H21">
+        <v>17.52432</v>
+      </c>
+      <c r="I21">
+        <v>0.04523650132067659</v>
+      </c>
+      <c r="J21">
+        <v>0.03061937196726285</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4616195</v>
+      </c>
+      <c r="N21">
+        <v>0.923239</v>
+      </c>
+      <c r="O21">
+        <v>0.117424333800012</v>
+      </c>
+      <c r="P21">
+        <v>0.0814718136816918</v>
+      </c>
+      <c r="Q21">
+        <v>4.04478391812</v>
+      </c>
+      <c r="R21">
+        <v>16.17913567248</v>
+      </c>
+      <c r="S21">
+        <v>0.005311866031023814</v>
+      </c>
+      <c r="T21">
+        <v>0.002494615767967256</v>
       </c>
     </row>
   </sheetData>
